--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1142149.670344276</v>
+        <v>1129811.695054048</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>341.984601952356</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>202.4782926141397</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.79857156919066</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>23.94563726208663</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>75.49088380154383</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>135.3928157585565</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>151.3804504940398</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>168.885688704624</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12.74407195098121</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.55276019063743</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>97.92168754360635</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>29.76498982117595</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>231.242759751733</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.98992439718</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>291.9173680349775</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>176.8030671570845</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>69.60662835550748</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>128.4038356853005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>70.51113862850718</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>3.843914944254252</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="C19" t="n">
-        <v>103.0901680777257</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>146.0512617929725</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>229.796569204138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>138.1561649817201</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>139.5271899898259</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.80013931658449</v>
+        <v>83.77443380478225</v>
       </c>
       <c r="T23" t="n">
         <v>199.03604613535</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>382.2636441678556</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.2744773748138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.4199664616725</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.525553994704</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.30841035179638</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0509578340822</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U25" t="n">
         <v>286.184551609377</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.59419338597598</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100.2255414663914</v>
       </c>
       <c r="G28" t="n">
         <v>165.525553994704</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.8001393165827</v>
+        <v>79.8001393165836</v>
       </c>
       <c r="T29" t="n">
         <v>199.03604613535</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3072997278744</v>
+        <v>81.594193385976</v>
       </c>
       <c r="I31" t="n">
-        <v>81.30841035179638</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.43890183961375</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T31" t="n">
         <v>217.4114992376929</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3831517457195</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H32" t="n">
-        <v>279.2121097143754</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.03604613535</v>
       </c>
       <c r="U32" t="n">
-        <v>250.905953473387</v>
+        <v>246.931658985189</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.4199664616725</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.43890183961375</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T34" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U34" t="n">
-        <v>174.798120981336</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.77443380478225</v>
+        <v>79.80013931658449</v>
       </c>
       <c r="T35" t="n">
-        <v>195.0617516471524</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U35" t="n">
         <v>250.905953473387</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.63587647420547</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.4070518380346</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.43890183961375</v>
       </c>
       <c r="S37" t="n">
         <v>181.0509578340822</v>
@@ -3556,10 +3556,10 @@
         <v>83.77443380478225</v>
       </c>
       <c r="T38" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471524</v>
       </c>
       <c r="U38" t="n">
-        <v>246.931658985189</v>
+        <v>250.905953473387</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.52212817914994</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.30841035179638</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
-        <v>170.5939101393585</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963192</v>
       </c>
       <c r="H41" t="n">
         <v>283.1864042025732</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>365.756806190271</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>116.005125544982</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.30841035179638</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.43890183961375</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U43" t="n">
-        <v>170.5939101393571</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.8001393165836</v>
+        <v>83.77443380478225</v>
       </c>
       <c r="T44" t="n">
         <v>199.03604613535</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>365.7568061902701</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.525553994704</v>
+        <v>91.67281888467559</v>
       </c>
       <c r="H46" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.47705163080818</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0509578340822</v>
@@ -4194,16 +4194,16 @@
         <v>286.184551609377</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.158427600213</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C2" t="n">
-        <v>1922.158427600213</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D2" t="n">
-        <v>1563.892728993463</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E2" t="n">
-        <v>1178.104476395219</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F2" t="n">
-        <v>767.1185716056111</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2357.815800507086</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2357.815800507086</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2026.752913163515</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>2026.752913163515</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.758267664335</v>
+        <v>1653.287154902436</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1530.025772611099</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1307.047291805835</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1017.928954309672</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>763.2444661037855</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>473.8272960668249</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.3110907974335</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="W5" t="n">
-        <v>2094.516021098447</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.050262837367</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.910930861555</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323091</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>606.5973764953485</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>1342.972143346164</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1342.972143346164</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4804,22 +4804,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816072</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764997</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1342.972143346164</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>326.0381161665167</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C10" t="n">
-        <v>157.1019332386098</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386098</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>222.9375019352442</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1537.535324575905</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1340.906576735766</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1340.906576735766</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1051.788239239604</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>797.1037510337171</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>507.6865809967564</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>507.6865809967564</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.6865809967564</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1648.004869410819</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.004869410819</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450752</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.744041450752</v>
+        <v>2044.374588592646</v>
       </c>
       <c r="Y11" t="n">
-        <v>2034.604709474941</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1311.909787855437</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C14" t="n">
-        <v>942.9472709150257</v>
+        <v>1485.020100086186</v>
       </c>
       <c r="D14" t="n">
-        <v>584.6815723082752</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E14" t="n">
-        <v>584.6815723082752</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>584.6815723082752</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.509627919559</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.3964936596652</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="C16" t="n">
-        <v>776.4603107317583</v>
+        <v>283.7117895417175</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3436713194226</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.527932658018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1575.827088531452</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>1575.827088531452</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.837537633435</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y16" t="n">
-        <v>1127.044958489905</v>
+        <v>452.6479724696244</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1565.219016943946</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C17" t="n">
-        <v>1565.219016943946</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D17" t="n">
-        <v>1206.953318337195</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5524,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3321.723079241237</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3068.192602515073</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3068.192602515073</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2715.423947244959</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2341.958188983879</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1951.818857008067</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.0764108006842</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C19" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5703,22 +5703,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.924175709432</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.507005672471</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>963.5174547744541</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.724875630924</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1624.638712032431</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C20" t="n">
-        <v>1255.676195092019</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D20" t="n">
-        <v>897.4104964852691</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E20" t="n">
-        <v>511.6222438870248</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F20" t="n">
-        <v>511.6222438870248</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5785,19 +5785,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269323</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008243</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032431</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2213.098136240306</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C22" t="n">
-        <v>2213.098136240306</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D22" t="n">
-        <v>2073.546454440589</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E22" t="n">
-        <v>1925.633360858196</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>1778.743413360285</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>1611.040576735004</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3133.919937435998</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>2912.153322005524</v>
+        <v>1594.67210837004</v>
       </c>
       <c r="U22" t="n">
-        <v>2912.153322005524</v>
+        <v>1305.569241495684</v>
       </c>
       <c r="V22" t="n">
-        <v>2912.153322005524</v>
+        <v>1050.884753289797</v>
       </c>
       <c r="W22" t="n">
-        <v>2622.736151968563</v>
+        <v>761.4675832528366</v>
       </c>
       <c r="X22" t="n">
-        <v>2394.746601070546</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="Y22" t="n">
-        <v>2394.746601070546</v>
+        <v>533.4780323548192</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I23" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J23" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K23" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966354</v>
       </c>
       <c r="L23" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M23" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N23" t="n">
         <v>2948.436788907899</v>
       </c>
       <c r="O23" t="n">
-        <v>3637.434109665871</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P23" t="n">
         <v>4190.976381557454</v>
@@ -6016,22 +6016,22 @@
         <v>4686.861982172364</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965513</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717684</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673859</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330288</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060174</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799094</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.33227970025</v>
@@ -6065,28 +6065,28 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I24" t="n">
-        <v>93.73723964344728</v>
+        <v>95.44706852746411</v>
       </c>
       <c r="J24" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K24" t="n">
-        <v>576.8807577203673</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L24" t="n">
-        <v>1071.843379901891</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M24" t="n">
-        <v>1269.523367509205</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.686534775637</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.686534775637</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.038713876677</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.644884957301</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7087020293943</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="D25" t="n">
-        <v>779.5920626170586</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="E25" t="n">
-        <v>631.6789690346654</v>
+        <v>407.8247164289374</v>
       </c>
       <c r="F25" t="n">
-        <v>484.7890215367551</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G25" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="H25" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="I25" t="n">
         <v>93.73723964344728</v>
@@ -6177,22 +6177,22 @@
         <v>2195.504461774625</v>
       </c>
       <c r="T25" t="n">
-        <v>2195.504461774625</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U25" t="n">
-        <v>1906.429157118689</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V25" t="n">
-        <v>1651.744668912802</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W25" t="n">
-        <v>1651.744668912802</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X25" t="n">
-        <v>1423.755118014785</v>
+        <v>914.7303729902553</v>
       </c>
       <c r="Y25" t="n">
-        <v>1202.962538871255</v>
+        <v>693.9377938467252</v>
       </c>
     </row>
     <row r="26">
@@ -6235,16 +6235,16 @@
         <v>1477.25596488715</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818162</v>
       </c>
       <c r="N26" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.4367889079</v>
       </c>
       <c r="O26" t="n">
-        <v>3637.434109665871</v>
+        <v>3637.434109665872</v>
       </c>
       <c r="P26" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q26" t="n">
         <v>4558.490828317812</v>
@@ -6302,28 +6302,28 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I27" t="n">
-        <v>93.73723964344728</v>
+        <v>95.44706852746411</v>
       </c>
       <c r="J27" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K27" t="n">
-        <v>243.2259377396009</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L27" t="n">
-        <v>544.3604056666716</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M27" t="n">
-        <v>1141.315308046122</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N27" t="n">
-        <v>1768.478475312553</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.038713876677</v>
@@ -6363,13 +6363,13 @@
         <v>512.2893290164855</v>
       </c>
       <c r="C28" t="n">
-        <v>343.3531460885786</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9347689310271</v>
+        <v>362.1726896041497</v>
       </c>
       <c r="E28" t="n">
-        <v>260.9347689310271</v>
+        <v>362.1726896041497</v>
       </c>
       <c r="F28" t="n">
         <v>260.9347689310271</v>
@@ -6457,10 +6457,10 @@
         <v>379.7841125753393</v>
       </c>
       <c r="H29" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I29" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557775</v>
       </c>
       <c r="J29" t="n">
         <v>377.7275109623934</v>
@@ -6469,25 +6469,25 @@
         <v>851.9898429966358</v>
       </c>
       <c r="L29" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M29" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N29" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665871</v>
       </c>
       <c r="P29" t="n">
-        <v>4190.976381557453</v>
+        <v>4190.976381557454</v>
       </c>
       <c r="Q29" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317811</v>
       </c>
       <c r="R29" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172363</v>
       </c>
       <c r="S29" t="n">
         <v>4606.255780842481</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.337869055535</v>
+        <v>943.3378690555352</v>
       </c>
       <c r="C30" t="n">
-        <v>768.884839774408</v>
+        <v>768.8848397744082</v>
       </c>
       <c r="D30" t="n">
-        <v>619.9504301131567</v>
+        <v>619.9504301131569</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7129751077013</v>
+        <v>460.7129751077014</v>
       </c>
       <c r="F30" t="n">
         <v>314.1784171345863</v>
@@ -6536,28 +6536,28 @@
         <v>178.418045479447</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I30" t="n">
-        <v>93.73723964344725</v>
+        <v>95.4470685274641</v>
       </c>
       <c r="J30" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K30" t="n">
-        <v>243.2259377396009</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L30" t="n">
-        <v>354.104750533965</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M30" t="n">
-        <v>951.0596529134152</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.222820179847</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.734796759803</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P30" t="n">
         <v>2553.038713876677</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.5920626170586</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="C31" t="n">
-        <v>779.5920626170586</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="D31" t="n">
-        <v>779.5920626170586</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="E31" t="n">
-        <v>631.6789690346654</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="F31" t="n">
-        <v>484.7890215367551</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="G31" t="n">
-        <v>317.5914922491753</v>
+        <v>176.1556168009988</v>
       </c>
       <c r="H31" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I31" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="J31" t="n">
         <v>173.8741688132294</v>
@@ -6627,7 +6627,7 @@
         <v>435.4005972446799</v>
       </c>
       <c r="L31" t="n">
-        <v>825.5908198420037</v>
+        <v>825.5908198420038</v>
       </c>
       <c r="M31" t="n">
         <v>1247.380823959239</v>
@@ -6645,28 +6645,28 @@
         <v>2445.494219020783</v>
       </c>
       <c r="R31" t="n">
-        <v>2445.494219020783</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S31" t="n">
-        <v>2445.494219020783</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T31" t="n">
-        <v>2225.886644033214</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U31" t="n">
-        <v>1936.811339377278</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V31" t="n">
-        <v>1682.126851171391</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W31" t="n">
-        <v>1410.022657488846</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.033106590828</v>
+        <v>914.7303729902553</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2405274472983</v>
+        <v>693.9377938467252</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2313.718000759161</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C32" t="n">
-        <v>1944.755483818749</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D32" t="n">
-        <v>1586.489785211998</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E32" t="n">
-        <v>1200.701532613754</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F32" t="n">
-        <v>789.7156278241466</v>
+        <v>793.730066701114</v>
       </c>
       <c r="G32" t="n">
-        <v>375.769673698372</v>
+        <v>379.7841125753393</v>
       </c>
       <c r="H32" t="n">
         <v>93.73723964344728</v>
       </c>
       <c r="I32" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557866</v>
       </c>
       <c r="J32" t="n">
-        <v>377.727510962393</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K32" t="n">
-        <v>851.9898429966365</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L32" t="n">
-        <v>1477.255964887152</v>
+        <v>1477.25596488715</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N32" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O32" t="n">
-        <v>3637.434109665872</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P32" t="n">
-        <v>4190.976381557455</v>
+        <v>4190.976381557453</v>
       </c>
       <c r="Q32" t="n">
         <v>4558.490828317812</v>
@@ -6733,19 +6733,19 @@
         <v>4401.194830717684</v>
       </c>
       <c r="U32" t="n">
-        <v>4147.754473673859</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.691586330288</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.922931060174</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X32" t="n">
-        <v>3090.457172799094</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y32" t="n">
-        <v>2700.317840823282</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I33" t="n">
-        <v>93.73723964344728</v>
+        <v>95.44706852746411</v>
       </c>
       <c r="J33" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K33" t="n">
-        <v>243.2259377396009</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2259377396009</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M33" t="n">
-        <v>718.0113909292484</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N33" t="n">
-        <v>1345.17455819568</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.686534775637</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.038713876677</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.7906323515732</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="C34" t="n">
-        <v>705.8544494236663</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="D34" t="n">
-        <v>555.7378100113306</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="E34" t="n">
         <v>407.8247164289374</v>
@@ -6882,28 +6882,28 @@
         <v>2445.494219020783</v>
       </c>
       <c r="R34" t="n">
-        <v>2445.494219020783</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S34" t="n">
-        <v>2445.494219020783</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T34" t="n">
-        <v>2225.886644033214</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.322885466208</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.638397260321</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.22122722336</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.231676325343</v>
+        <v>914.7303729902553</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.439097181813</v>
+        <v>693.9377938467252</v>
       </c>
     </row>
     <row r="35">
@@ -6964,7 +6964,7 @@
         <v>4686.861982172364</v>
       </c>
       <c r="S35" t="n">
-        <v>4602.241341965513</v>
+        <v>4606.255780842481</v>
       </c>
       <c r="T35" t="n">
         <v>4405.209269594652</v>
@@ -7013,28 +7013,28 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I36" t="n">
-        <v>93.73723964344728</v>
+        <v>95.44706852746411</v>
       </c>
       <c r="J36" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K36" t="n">
-        <v>576.8807577203673</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L36" t="n">
-        <v>1071.843379901891</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M36" t="n">
-        <v>1668.798282281341</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N36" t="n">
-        <v>2295.961449547773</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.038713876677</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2820.767094026262</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="C37" t="n">
-        <v>2651.830911098355</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="D37" t="n">
-        <v>2501.714271686019</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="E37" t="n">
-        <v>2476.829547974701</v>
+        <v>364.3762354340923</v>
       </c>
       <c r="F37" t="n">
-        <v>2476.829547974701</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G37" t="n">
-        <v>2476.829547974701</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="H37" t="n">
-        <v>2335.10500279503</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="I37" t="n">
-        <v>2335.10500279503</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="J37" t="n">
-        <v>2415.241931964812</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K37" t="n">
-        <v>2676.768360396262</v>
+        <v>435.4005972446799</v>
       </c>
       <c r="L37" t="n">
-        <v>3066.958582993586</v>
+        <v>825.5908198420038</v>
       </c>
       <c r="M37" t="n">
-        <v>3488.748587110821</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N37" t="n">
-        <v>3905.943984099015</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O37" t="n">
-        <v>4275.275162734848</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P37" t="n">
-        <v>4567.781107761634</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q37" t="n">
-        <v>4686.861982172364</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R37" t="n">
-        <v>4686.861982172364</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S37" t="n">
-        <v>4503.982226784402</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T37" t="n">
-        <v>4284.374651796833</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U37" t="n">
-        <v>3995.299347140897</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V37" t="n">
-        <v>3740.61485893501</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W37" t="n">
-        <v>3451.197688898049</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X37" t="n">
-        <v>3223.208138000032</v>
+        <v>914.7303729902553</v>
       </c>
       <c r="Y37" t="n">
-        <v>3002.415558856502</v>
+        <v>693.9377938467252</v>
       </c>
     </row>
     <row r="38">
@@ -7204,7 +7204,7 @@
         <v>4602.241341965513</v>
       </c>
       <c r="T38" t="n">
-        <v>4401.194830717684</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U38" t="n">
         <v>4151.768912550827</v>
@@ -7250,28 +7250,28 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I39" t="n">
-        <v>93.73723964344728</v>
+        <v>95.44706852746411</v>
       </c>
       <c r="J39" t="n">
-        <v>93.73723964344728</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K39" t="n">
-        <v>427.3920596242136</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L39" t="n">
-        <v>427.3920596242136</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M39" t="n">
-        <v>718.0113909292484</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N39" t="n">
-        <v>1345.17455819568</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.686534775637</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.038713876677</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.644884957301</v>
+        <v>579.399330874681</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7087020293943</v>
+        <v>410.4631479467741</v>
       </c>
       <c r="D40" t="n">
-        <v>779.5920626170586</v>
+        <v>260.3465085344384</v>
       </c>
       <c r="E40" t="n">
-        <v>631.6789690346654</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F40" t="n">
-        <v>484.7890215367551</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="G40" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="H40" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="I40" t="n">
         <v>93.73723964344728</v>
@@ -7359,25 +7359,25 @@
         <v>2445.494219020783</v>
       </c>
       <c r="S40" t="n">
-        <v>2445.494219020783</v>
+        <v>2262.614463632821</v>
       </c>
       <c r="T40" t="n">
-        <v>2445.494219020783</v>
+        <v>2043.006888645252</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.177138071936</v>
+        <v>1753.931583989316</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.492649866049</v>
+        <v>1499.247095783429</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.075479829088</v>
+        <v>1209.829925746468</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.085928931071</v>
+        <v>981.8403748484509</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.293349787541</v>
+        <v>761.0477957049208</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759161</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818749</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211998</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613754</v>
       </c>
       <c r="F41" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241466</v>
       </c>
       <c r="G41" t="n">
         <v>379.7841125753393</v>
@@ -7411,10 +7411,10 @@
         <v>95.14107549557866</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623934</v>
       </c>
       <c r="K41" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966358</v>
       </c>
       <c r="L41" t="n">
         <v>1477.25596488715</v>
@@ -7426,10 +7426,10 @@
         <v>2948.436788907899</v>
       </c>
       <c r="O41" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665871</v>
       </c>
       <c r="P41" t="n">
-        <v>4190.976381557453</v>
+        <v>4190.976381557454</v>
       </c>
       <c r="Q41" t="n">
         <v>4558.490828317812</v>
@@ -7453,10 +7453,10 @@
         <v>3463.922931060174</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799094</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823282</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I42" t="n">
-        <v>93.73723964344728</v>
+        <v>95.44706852746411</v>
       </c>
       <c r="J42" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K42" t="n">
-        <v>243.2259377396009</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L42" t="n">
-        <v>354.104750533965</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M42" t="n">
-        <v>951.0596529134152</v>
+        <v>1374.363570030289</v>
       </c>
       <c r="N42" t="n">
-        <v>1578.222820179847</v>
+        <v>2001.52673729672</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.734796759803</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P42" t="n">
         <v>2553.038713876677</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3340.012648108884</v>
+        <v>576.7608993568443</v>
       </c>
       <c r="C43" t="n">
-        <v>3171.076465180977</v>
+        <v>407.8247164289374</v>
       </c>
       <c r="D43" t="n">
-        <v>3020.959825768641</v>
+        <v>407.8247164289374</v>
       </c>
       <c r="E43" t="n">
-        <v>2873.046732186248</v>
+        <v>407.8247164289374</v>
       </c>
       <c r="F43" t="n">
-        <v>2726.156784688338</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G43" t="n">
-        <v>2558.959255400758</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="H43" t="n">
-        <v>2417.234710221087</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="I43" t="n">
-        <v>2335.10500279503</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="J43" t="n">
-        <v>2415.241931964812</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K43" t="n">
-        <v>2676.768360396262</v>
+        <v>435.4005972446799</v>
       </c>
       <c r="L43" t="n">
-        <v>3066.958582993586</v>
+        <v>825.5908198420038</v>
       </c>
       <c r="M43" t="n">
-        <v>3488.748587110821</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N43" t="n">
-        <v>3905.943984099015</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O43" t="n">
-        <v>4275.275162734848</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P43" t="n">
-        <v>4567.781107761634</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q43" t="n">
-        <v>4686.861982172364</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R43" t="n">
-        <v>4686.861982172364</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S43" t="n">
-        <v>4686.861982172364</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T43" t="n">
-        <v>4686.861982172364</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U43" t="n">
-        <v>4514.544901223519</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V43" t="n">
-        <v>4259.860413017632</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W43" t="n">
-        <v>3970.443242980671</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X43" t="n">
-        <v>3742.453692082654</v>
+        <v>914.7303729902553</v>
       </c>
       <c r="Y43" t="n">
-        <v>3521.661112939124</v>
+        <v>693.9377938467252</v>
       </c>
     </row>
     <row r="44">
@@ -7675,19 +7675,19 @@
         <v>4686.861982172363</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965512</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717684</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673858</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330287</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060173</v>
       </c>
       <c r="X44" t="n">
         <v>3094.471611676062</v>
@@ -7724,25 +7724,25 @@
         <v>93.73723964344727</v>
       </c>
       <c r="I45" t="n">
-        <v>93.73723964344727</v>
+        <v>95.4470685274641</v>
       </c>
       <c r="J45" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K45" t="n">
-        <v>410.6541049323979</v>
+        <v>578.5905866043842</v>
       </c>
       <c r="L45" t="n">
-        <v>905.6167271139216</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M45" t="n">
-        <v>1502.571629493372</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.734796759803</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.734796759803</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P45" t="n">
         <v>2553.038713876677</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1056.390987259333</v>
+        <v>800.1919100182112</v>
       </c>
       <c r="C46" t="n">
-        <v>887.4548043314264</v>
+        <v>631.2557270903043</v>
       </c>
       <c r="D46" t="n">
-        <v>737.3381649190907</v>
+        <v>481.1390876779685</v>
       </c>
       <c r="E46" t="n">
-        <v>589.4250713366976</v>
+        <v>333.2259940955754</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5351238387872</v>
+        <v>186.336046597665</v>
       </c>
       <c r="G46" t="n">
-        <v>275.3375945512074</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="H46" t="n">
-        <v>133.6130493715363</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I46" t="n">
         <v>93.73723964344727</v>
@@ -7830,28 +7830,28 @@
         <v>2445.494219020783</v>
       </c>
       <c r="R46" t="n">
-        <v>2378.384217162587</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="S46" t="n">
-        <v>2195.504461774625</v>
+        <v>2262.614463632821</v>
       </c>
       <c r="T46" t="n">
-        <v>1975.896886787057</v>
+        <v>2043.006888645252</v>
       </c>
       <c r="U46" t="n">
-        <v>1686.82158213112</v>
+        <v>1753.931583989316</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.82158213112</v>
+        <v>1499.247095783429</v>
       </c>
       <c r="W46" t="n">
-        <v>1686.82158213112</v>
+        <v>1209.829925746468</v>
       </c>
       <c r="X46" t="n">
-        <v>1458.832031233103</v>
+        <v>981.8403748484509</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.039452089573</v>
+        <v>981.8403748484509</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>324.918051799507</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>138.488340926736</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.59472895491476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>62.76567358570543</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>234.118658496369</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>79.00884466270487</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>123.7338076385275</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>284.1719029921758</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>200.0740551953659</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>161.5631840798973</v>
       </c>
       <c r="C19" t="n">
-        <v>64.15665302090216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>264.8704638604809</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>64.81119518318249</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24025,10 +24025,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>10.4593080364923</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>80.02175928634333</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3.974294488197984</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.5575028071235</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.01399618489665</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.30841035179638</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>67.02127963223637</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.19550655653985</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.974294488199547</v>
+        <v>3.974294488198652</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>58.71310634189835</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.30841035179638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>17.13984659087151</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.974294488197984</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.01399618489665</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>111.386430628041</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.974294488197756</v>
       </c>
       <c r="T35" t="n">
-        <v>3.974294488197671</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>121.7980861723637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.01399618489663</v>
       </c>
       <c r="G37" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I37" t="n">
         <v>81.30841035179638</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.974294488197671</v>
       </c>
       <c r="U38" t="n">
-        <v>3.974294488197984</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.9118344674192</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.30841035179638</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>66.43890183961375</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>115.5906414700185</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.974294488197643</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>3.974294488198041</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.82685463695526</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.30841035179638</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>115.5906414700198</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.974294488198652</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>3.97429448819895</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>73.85273511002839</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I46" t="n">
-        <v>41.83135872098821</v>
+        <v>81.30841035179638</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.43890183961375</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810492.3420568485</v>
+        <v>810492.3420568486</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810492.3420568485</v>
+        <v>810492.3420568486</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810492.3420568487</v>
+        <v>810492.3420568486</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957131.6488914813</v>
+        <v>957131.6488914812</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957131.6488914813</v>
+        <v>957131.6488914812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957131.6488914812</v>
+        <v>957131.6488914813</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957131.6488914812</v>
+        <v>957131.6488914813</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957131.6488914812</v>
+        <v>957131.6488914811</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
         <v>392146.6638165589</v>
@@ -26334,25 +26334,25 @@
         <v>392146.663816559</v>
       </c>
       <c r="I2" t="n">
+        <v>463906.3246079747</v>
+      </c>
+      <c r="J2" t="n">
         <v>463906.3246079748</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>463906.3246079748</v>
+      </c>
+      <c r="L2" t="n">
+        <v>463906.3246079748</v>
+      </c>
+      <c r="M2" t="n">
         <v>463906.3246079747</v>
       </c>
-      <c r="K2" t="n">
-        <v>463906.3246079746</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463906.3246079746</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>463906.3246079748</v>
       </c>
-      <c r="N2" t="n">
-        <v>463906.3246079747</v>
-      </c>
       <c r="O2" t="n">
-        <v>463906.3246079746</v>
+        <v>463906.3246079748</v>
       </c>
       <c r="P2" t="n">
         <v>463906.3246079747</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341481</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072219</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="C4" t="n">
-        <v>137930.4104072219</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.7724398447</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-873520.9487510235</v>
       </c>
       <c r="C6" t="n">
-        <v>241230.8348248967</v>
+        <v>241230.8348248964</v>
       </c>
       <c r="D6" t="n">
-        <v>241230.8348248964</v>
+        <v>241230.8348248965</v>
       </c>
       <c r="E6" t="n">
-        <v>125996.9403358836</v>
+        <v>122520.7510378225</v>
       </c>
       <c r="F6" t="n">
-        <v>308069.920153074</v>
+        <v>304593.7308550129</v>
       </c>
       <c r="G6" t="n">
-        <v>308069.920153074</v>
+        <v>304593.7308550132</v>
       </c>
       <c r="H6" t="n">
-        <v>308069.9201530742</v>
+        <v>304593.7308550131</v>
       </c>
       <c r="I6" t="n">
-        <v>53595.08654029183</v>
+        <v>53238.88249403135</v>
       </c>
       <c r="J6" t="n">
-        <v>185309.4652364475</v>
+        <v>184953.2611901872</v>
       </c>
       <c r="K6" t="n">
-        <v>352914.64304643</v>
+        <v>352558.4390001698</v>
       </c>
       <c r="L6" t="n">
-        <v>352914.64304643</v>
+        <v>352558.4390001698</v>
       </c>
       <c r="M6" t="n">
-        <v>305362.3772530154</v>
+        <v>305006.1732067548</v>
       </c>
       <c r="N6" t="n">
-        <v>352914.64304643</v>
+        <v>352558.4390001698</v>
       </c>
       <c r="O6" t="n">
-        <v>352914.64304643</v>
+        <v>352558.4390001698</v>
       </c>
       <c r="P6" t="n">
-        <v>352914.6430464301</v>
+        <v>352558.4390001697</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>340.3140401407982</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>69.56310082059798</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>4.179892366094037</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>190.8638887925468</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.5773610745044</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>131.1673011786899</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>213.8481529588566</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,22 +27824,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>74.3292048949973</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>196.3872030663835</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>341.9389696697017</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>141.7538398541668</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.635884875967278</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32569,10 +32569,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32785,7 +32785,7 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J24" t="n">
         <v>277.8363116122765</v>
@@ -32797,19 +32797,19 @@
         <v>638.5166244076759</v>
       </c>
       <c r="M24" t="n">
-        <v>341.8107890809213</v>
+        <v>745.118783800251</v>
       </c>
       <c r="N24" t="n">
         <v>764.8398608373046</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P24" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.3840589185132</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J27" t="n">
         <v>277.8363116122765</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620018</v>
       </c>
       <c r="L27" t="n">
-        <v>442.7306100092385</v>
+        <v>638.5166244076759</v>
       </c>
       <c r="M27" t="n">
         <v>745.118783800251</v>
@@ -33040,13 +33040,13 @@
         <v>764.8398608373046</v>
       </c>
       <c r="O27" t="n">
-        <v>699.6790490706633</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.3840589185132</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J30" t="n">
         <v>277.8363116122765</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620018</v>
       </c>
       <c r="L30" t="n">
-        <v>250.5531805822621</v>
+        <v>638.5166244076759</v>
       </c>
       <c r="M30" t="n">
         <v>745.118783800251</v>
@@ -33277,10 +33277,10 @@
         <v>764.8398608373046</v>
       </c>
       <c r="O30" t="n">
-        <v>699.6790490706633</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P30" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,31 +33496,31 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J33" t="n">
         <v>277.8363116122765</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620018</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076759</v>
       </c>
       <c r="M33" t="n">
-        <v>621.7152997701471</v>
+        <v>745.118783800251</v>
       </c>
       <c r="N33" t="n">
         <v>764.8398608373046</v>
       </c>
       <c r="O33" t="n">
-        <v>699.6790490706633</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P33" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.3840589185132</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J36" t="n">
         <v>277.8363116122765</v>
@@ -33751,13 +33751,13 @@
         <v>764.8398608373046</v>
       </c>
       <c r="O36" t="n">
-        <v>166.8679639845832</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.3840589185132</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,31 +33970,31 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.8363116122765</v>
       </c>
       <c r="K39" t="n">
         <v>474.8665096620018</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076759</v>
       </c>
       <c r="M39" t="n">
-        <v>435.688914028114</v>
+        <v>745.118783800251</v>
       </c>
       <c r="N39" t="n">
         <v>764.8398608373046</v>
       </c>
       <c r="O39" t="n">
-        <v>699.6790490706633</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P39" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.3840589185132</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,19 +34207,19 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J42" t="n">
         <v>277.8363116122765</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620018</v>
       </c>
       <c r="L42" t="n">
-        <v>250.5531805822621</v>
+        <v>638.5166244076759</v>
       </c>
       <c r="M42" t="n">
-        <v>745.118783800251</v>
+        <v>445.9828836638171</v>
       </c>
       <c r="N42" t="n">
         <v>764.8398608373046</v>
@@ -34228,7 +34228,7 @@
         <v>699.6790490706633</v>
       </c>
       <c r="P42" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,13 +34444,13 @@
         <v>28.40144645885673</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J45" t="n">
         <v>277.8363116122765</v>
       </c>
       <c r="K45" t="n">
-        <v>306.960799775164</v>
+        <v>474.8665096620018</v>
       </c>
       <c r="L45" t="n">
         <v>638.5166244076759</v>
@@ -34462,10 +34462,10 @@
         <v>764.8398608373046</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P45" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335544</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J24" t="n">
         <v>150.9986849456098</v>
@@ -36445,19 +36445,19 @@
         <v>499.9622446278017</v>
       </c>
       <c r="M24" t="n">
-        <v>199.676755158903</v>
+        <v>602.9847498782326</v>
       </c>
       <c r="N24" t="n">
         <v>633.4981487539713</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P24" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.4022848324917</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J27" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.0250706876428</v>
       </c>
       <c r="L27" t="n">
-        <v>304.1762302293643</v>
+        <v>499.9622446278017</v>
       </c>
       <c r="M27" t="n">
         <v>602.9847498782326</v>
@@ -36688,13 +36688,13 @@
         <v>633.4981487539713</v>
       </c>
       <c r="O27" t="n">
-        <v>557.0828046262188</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.4022848324917</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J30" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.0250706876428</v>
       </c>
       <c r="L30" t="n">
-        <v>111.998800802388</v>
+        <v>499.9622446278017</v>
       </c>
       <c r="M30" t="n">
         <v>602.9847498782326</v>
@@ -36925,10 +36925,10 @@
         <v>633.4981487539713</v>
       </c>
       <c r="O30" t="n">
-        <v>557.0828046262188</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P30" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J33" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.0250706876428</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>499.9622446278017</v>
       </c>
       <c r="M33" t="n">
-        <v>479.5812658481287</v>
+        <v>602.9847498782326</v>
       </c>
       <c r="N33" t="n">
         <v>633.4981487539713</v>
       </c>
       <c r="O33" t="n">
-        <v>557.0828046262188</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P33" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.4022848324917</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J36" t="n">
         <v>150.9986849456098</v>
@@ -37399,13 +37399,13 @@
         <v>633.4981487539713</v>
       </c>
       <c r="O36" t="n">
-        <v>24.27171954013875</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.4022848324917</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>150.9986849456098</v>
       </c>
       <c r="K39" t="n">
         <v>337.0250706876428</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>499.9622446278017</v>
       </c>
       <c r="M39" t="n">
-        <v>293.5548801060957</v>
+        <v>602.9847498782326</v>
       </c>
       <c r="N39" t="n">
         <v>633.4981487539713</v>
       </c>
       <c r="O39" t="n">
-        <v>557.0828046262188</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P39" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.4022848324917</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J42" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.0250706876428</v>
       </c>
       <c r="L42" t="n">
-        <v>111.9988008023879</v>
+        <v>499.9622446278017</v>
       </c>
       <c r="M42" t="n">
-        <v>602.9847498782326</v>
+        <v>303.8488497417988</v>
       </c>
       <c r="N42" t="n">
         <v>633.4981487539713</v>
@@ -37876,7 +37876,7 @@
         <v>557.0828046262188</v>
       </c>
       <c r="P42" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.72709988284528</v>
       </c>
       <c r="J45" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K45" t="n">
-        <v>169.1193608008051</v>
+        <v>337.0250706876428</v>
       </c>
       <c r="L45" t="n">
         <v>499.9622446278017</v>
@@ -38110,10 +38110,10 @@
         <v>633.4981487539713</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P45" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129811.695054048</v>
+        <v>1138973.098554942</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>173.1932572884159</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>202.4782926141397</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>10.12799412870886</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.94563726208663</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>75.49088380154383</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>192.2415752082162</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>243.1374135427318</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>110.3838034696614</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>12.74407195098121</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>232.4266580430892</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063743</v>
+        <v>24.552760190637</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>117.0602861317427</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>231.242759751733</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.26879610204004</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>114.4746605491562</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>291.9173680349775</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>187.2282548879066</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>69.60662835550748</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>2.308339682493702</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>70.51113862850718</v>
+        <v>96.42217904608353</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.26879610204004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>62.08185706420313</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>229.796569204138</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>175.5478091125856</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>19.36824379237631</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5271899898259</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.03604613535</v>
       </c>
       <c r="U23" t="n">
-        <v>250.905953473387</v>
+        <v>246.931658985189</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2636441678556</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.80013931658449</v>
+        <v>83.77443380478225</v>
       </c>
       <c r="T26" t="n">
         <v>199.03604613535</v>
       </c>
       <c r="U26" t="n">
-        <v>250.905953473387</v>
+        <v>246.931658985189</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>102.4070518380346</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>100.2255414663914</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.525553994704</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963192</v>
       </c>
       <c r="H29" t="n">
         <v>283.1864042025732</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.8001393165836</v>
+        <v>83.77443380478225</v>
       </c>
       <c r="T29" t="n">
         <v>199.03604613535</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.525553994704</v>
       </c>
       <c r="H31" t="n">
-        <v>81.594193385976</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0509578340822</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4114992376929</v>
+        <v>171.2030780575151</v>
       </c>
       <c r="U31" t="n">
         <v>286.184551609377</v>
@@ -3085,10 +3085,10 @@
         <v>199.03604613535</v>
       </c>
       <c r="U32" t="n">
-        <v>246.931658985189</v>
+        <v>250.905953473387</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>323.777963981937</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.4070518380346</v>
       </c>
       <c r="E34" t="n">
-        <v>103.4199664616725</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.525553994704</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.80013931658449</v>
+        <v>83.77443380478225</v>
       </c>
       <c r="T35" t="n">
         <v>199.03604613535</v>
       </c>
       <c r="U35" t="n">
-        <v>250.905953473387</v>
+        <v>246.9316589851872</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>54.64141281844189</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>102.4070518380346</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.525553994704</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0509578340822</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>19.52212817914994</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184551609377</v>
+        <v>174.798120981336</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>378.7595471752827</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>405.8322000963192</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H41" t="n">
         <v>283.1864042025732</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>116.005125544982</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>62.94958610877994</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0509578340822</v>
@@ -4030,7 +4030,7 @@
         <v>83.77443380478225</v>
       </c>
       <c r="T44" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471515</v>
       </c>
       <c r="U44" t="n">
         <v>250.905953473387</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>365.7568061902701</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>52.92014571451814</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>91.67281888467559</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1653.287154902436</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552734</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570292</v>
+        <v>1119.253774927146</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>708.2678701375389</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>292.5631198618278</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2357.815800507086</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2357.815800507086</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2026.752913163515</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2026.752913163515</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1653.287154902436</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1653.287154902436</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>783.0370443974452</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>614.1008614695384</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>463.9842220572026</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>316.0711284748095</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>316.0711284748095</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688552</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>1185.478088371215</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>964.685509227685</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2361.386702945269</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2361.386702945269</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2361.386702945269</v>
+        <v>2368.155919098926</v>
       </c>
       <c r="V5" t="n">
-        <v>2361.386702945269</v>
+        <v>2368.155919098926</v>
       </c>
       <c r="W5" t="n">
-        <v>2361.386702945269</v>
+        <v>2368.155919098926</v>
       </c>
       <c r="X5" t="n">
-        <v>2361.386702945269</v>
+        <v>1994.690160837846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2361.386702945269</v>
+        <v>1604.550828862034</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1390.852773061637</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1136.16828485575</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.972143346164</v>
+        <v>728.3028554854563</v>
       </c>
       <c r="C8" t="n">
-        <v>1342.972143346164</v>
+        <v>359.3403385450446</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>359.3403385450446</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>359.3403385450446</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>352.3948377958412</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4801,19 +4801,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1342.972143346164</v>
+        <v>1114.902695549578</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446891756898</v>
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.90341785788</v>
+        <v>689.9034178578795</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299731</v>
+        <v>520.9672349299726</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176373</v>
+        <v>370.8505955176369</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352442</v>
+        <v>222.9375019352437</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733384</v>
+        <v>76.04755443733339</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5001,13 +5001,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>871.5518826881192</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1267.635416552713</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.635416552713</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>2044.374588592646</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>1654.235256616835</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="12">
@@ -5111,19 +5111,19 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158134</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.8553933260938</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="C13" t="n">
-        <v>231.8553933260938</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="D13" t="n">
-        <v>231.8553933260938</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>363.7915515140961</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1853.982617026598</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="C14" t="n">
-        <v>1485.020100086186</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F14" t="n">
         <v>779.1681669784198</v>
@@ -5278,16 +5278,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5311,19 +5311,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066532</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="W14" t="n">
-        <v>2630.721789066532</v>
+        <v>2673.427048484428</v>
       </c>
       <c r="X14" t="n">
-        <v>2630.721789066532</v>
+        <v>2299.961290223348</v>
       </c>
       <c r="Y14" t="n">
-        <v>2240.58245709072</v>
+        <v>1909.821958247536</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>452.6479724696244</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C16" t="n">
-        <v>283.7117895417175</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D16" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046023</v>
+        <v>1132.577068123073</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676417</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696244</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.6479724696244</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392144</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D17" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5521,7 +5521,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5560,7 +5560,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.4020639300938</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4020639300938</v>
+        <v>591.726940667266</v>
       </c>
       <c r="D19" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676413</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696239</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260938</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038044</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097632</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490882</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926375</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>298.6298631030299</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>298.6298631030299</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2688.776577961587</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339057</v>
+        <v>2336.007922691473</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077977</v>
+        <v>1962.542164430393</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102166</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.4780323548192</v>
+        <v>530.9956795433845</v>
       </c>
       <c r="C22" t="n">
-        <v>364.5418494269123</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1594.67210837004</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1305.569241495684</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V22" t="n">
-        <v>1050.884753289797</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W22" t="n">
-        <v>761.4675832528366</v>
+        <v>1161.426274415172</v>
       </c>
       <c r="X22" t="n">
-        <v>533.4780323548192</v>
+        <v>933.4367235171544</v>
       </c>
       <c r="Y22" t="n">
-        <v>533.4780323548192</v>
+        <v>712.6441443736243</v>
       </c>
     </row>
     <row r="23">
@@ -5986,28 +5986,28 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I23" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557866</v>
       </c>
       <c r="J23" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623943</v>
       </c>
       <c r="K23" t="n">
-        <v>851.9898429966354</v>
+        <v>851.9898429966368</v>
       </c>
       <c r="L23" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887152</v>
       </c>
       <c r="M23" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.654438818162</v>
       </c>
       <c r="N23" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.4367889079</v>
       </c>
       <c r="O23" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665872</v>
       </c>
       <c r="P23" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q23" t="n">
         <v>4558.490828317812</v>
@@ -6022,16 +6022,16 @@
         <v>4401.194830717684</v>
       </c>
       <c r="U23" t="n">
-        <v>4147.754473673859</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.691586330288</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.922931060174</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X23" t="n">
-        <v>3090.457172799094</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.33227970025</v>
@@ -6080,7 +6080,7 @@
         <v>1670.508111165358</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.67127843179</v>
+        <v>2001.52673729672</v>
       </c>
       <c r="O24" t="n">
         <v>2553.038713876677</v>
@@ -6226,25 +6226,25 @@
         <v>95.14107549557866</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L26" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N26" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O26" t="n">
-        <v>3637.434109665872</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P26" t="n">
-        <v>4190.976381557455</v>
+        <v>4190.976381557453</v>
       </c>
       <c r="Q26" t="n">
         <v>4558.490828317812</v>
@@ -6253,10 +6253,10 @@
         <v>4686.861982172364</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965513</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717684</v>
       </c>
       <c r="U26" t="n">
         <v>4151.768912550827</v>
@@ -6311,13 +6311,13 @@
         <v>578.5905866043842</v>
       </c>
       <c r="L27" t="n">
-        <v>1073.553208785908</v>
+        <v>777.4086676508384</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.508111165358</v>
+        <v>1374.363570030289</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.67127843179</v>
+        <v>2001.52673729672</v>
       </c>
       <c r="O27" t="n">
         <v>2553.038713876677</v>
@@ -6363,13 +6363,13 @@
         <v>512.2893290164855</v>
       </c>
       <c r="C28" t="n">
-        <v>512.2893290164855</v>
+        <v>408.8478625134202</v>
       </c>
       <c r="D28" t="n">
-        <v>362.1726896041497</v>
+        <v>408.8478625134202</v>
       </c>
       <c r="E28" t="n">
-        <v>362.1726896041497</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="F28" t="n">
         <v>260.9347689310271</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759161</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818749</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211998</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613754</v>
       </c>
       <c r="F29" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241466</v>
       </c>
       <c r="G29" t="n">
         <v>379.7841125753393</v>
       </c>
       <c r="H29" t="n">
-        <v>93.73723964344727</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="I29" t="n">
-        <v>95.14107549557775</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J29" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K29" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966354</v>
       </c>
       <c r="L29" t="n">
-        <v>1477.255964887151</v>
+        <v>1477.25596488715</v>
       </c>
       <c r="M29" t="n">
         <v>2204.654438818161</v>
@@ -6478,37 +6478,37 @@
         <v>2948.436788907899</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.434109665871</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P29" t="n">
         <v>4190.976381557454</v>
       </c>
       <c r="Q29" t="n">
-        <v>4558.490828317811</v>
+        <v>4558.490828317812</v>
       </c>
       <c r="R29" t="n">
-        <v>4686.861982172363</v>
+        <v>4686.861982172364</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965513</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717684</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673859</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330288</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060174</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799094</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823282</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.418045479447</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73723964344727</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="I30" t="n">
-        <v>95.4470685274641</v>
+        <v>95.44706852746411</v>
       </c>
       <c r="J30" t="n">
         <v>244.9357666236178</v>
@@ -6554,7 +6554,7 @@
         <v>1670.508111165358</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.67127843179</v>
+        <v>2001.52673729672</v>
       </c>
       <c r="O30" t="n">
         <v>2553.038713876677</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.2893290164855</v>
+        <v>558.9645019257559</v>
       </c>
       <c r="C31" t="n">
-        <v>343.3531460885786</v>
+        <v>558.9645019257559</v>
       </c>
       <c r="D31" t="n">
-        <v>343.3531460885786</v>
+        <v>408.8478625134202</v>
       </c>
       <c r="E31" t="n">
-        <v>343.3531460885786</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="F31" t="n">
-        <v>343.3531460885786</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G31" t="n">
-        <v>176.1556168009988</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="H31" t="n">
-        <v>93.73723964344727</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="I31" t="n">
-        <v>93.73723964344727</v>
+        <v>93.73723964344728</v>
       </c>
       <c r="J31" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K31" t="n">
         <v>435.4005972446799</v>
@@ -6651,22 +6651,22 @@
         <v>2195.504461774625</v>
       </c>
       <c r="T31" t="n">
-        <v>1975.896886787057</v>
+        <v>2022.572059696327</v>
       </c>
       <c r="U31" t="n">
-        <v>1686.82158213112</v>
+        <v>1733.496755040391</v>
       </c>
       <c r="V31" t="n">
-        <v>1432.137093925233</v>
+        <v>1478.812266834504</v>
       </c>
       <c r="W31" t="n">
-        <v>1142.719923888273</v>
+        <v>1189.395096797543</v>
       </c>
       <c r="X31" t="n">
-        <v>914.7303729902553</v>
+        <v>961.4055458995258</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.9377938467252</v>
+        <v>740.6129667559957</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I32" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J32" t="n">
         <v>377.7275109623929</v>
       </c>
       <c r="K32" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966354</v>
       </c>
       <c r="L32" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N32" t="n">
         <v>2948.436788907899</v>
@@ -6718,7 +6718,7 @@
         <v>3637.43410966587</v>
       </c>
       <c r="P32" t="n">
-        <v>4190.976381557453</v>
+        <v>4190.976381557454</v>
       </c>
       <c r="Q32" t="n">
         <v>4558.490828317812</v>
@@ -6733,7 +6733,7 @@
         <v>4401.194830717684</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673859</v>
       </c>
       <c r="V32" t="n">
         <v>3820.706025207256</v>
@@ -6791,7 +6791,7 @@
         <v>1670.508111165358</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.67127843179</v>
+        <v>2001.52673729672</v>
       </c>
       <c r="O33" t="n">
         <v>2553.038713876677</v>
@@ -6840,10 +6840,10 @@
         <v>512.2893290164855</v>
       </c>
       <c r="D34" t="n">
-        <v>512.2893290164855</v>
+        <v>408.8478625134202</v>
       </c>
       <c r="E34" t="n">
-        <v>407.8247164289374</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="F34" t="n">
         <v>260.9347689310271</v>
@@ -6931,7 +6931,7 @@
         <v>379.7841125753393</v>
       </c>
       <c r="H35" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="I35" t="n">
         <v>95.14107549557866</v>
@@ -6949,25 +6949,25 @@
         <v>2204.65443881816</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.436788907898</v>
       </c>
       <c r="O35" t="n">
-        <v>3637.434109665871</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P35" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557453</v>
       </c>
       <c r="Q35" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.49082831781</v>
       </c>
       <c r="R35" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172362</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965511</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717683</v>
       </c>
       <c r="U35" t="n">
         <v>4151.768912550827</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3378690555352</v>
+        <v>943.337869055535</v>
       </c>
       <c r="C36" t="n">
-        <v>768.8848397744082</v>
+        <v>768.884839774408</v>
       </c>
       <c r="D36" t="n">
-        <v>619.9504301131569</v>
+        <v>619.9504301131567</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7129751077014</v>
+        <v>460.7129751077013</v>
       </c>
       <c r="F36" t="n">
         <v>314.1784171345863</v>
@@ -7010,16 +7010,16 @@
         <v>178.418045479447</v>
       </c>
       <c r="H36" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="I36" t="n">
-        <v>95.44706852746411</v>
+        <v>95.44706852746408</v>
       </c>
       <c r="J36" t="n">
-        <v>244.9357666236178</v>
+        <v>244.9357666236177</v>
       </c>
       <c r="K36" t="n">
-        <v>578.5905866043842</v>
+        <v>578.590586604384</v>
       </c>
       <c r="L36" t="n">
         <v>1073.553208785908</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>512.2893290164855</v>
+        <v>761.0477957049208</v>
       </c>
       <c r="C37" t="n">
-        <v>512.2893290164855</v>
+        <v>705.8544494236663</v>
       </c>
       <c r="D37" t="n">
-        <v>512.2893290164855</v>
+        <v>555.7378100113306</v>
       </c>
       <c r="E37" t="n">
-        <v>364.3762354340923</v>
+        <v>407.8247164289374</v>
       </c>
       <c r="F37" t="n">
         <v>260.9347689310271</v>
       </c>
       <c r="G37" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="H37" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="I37" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="J37" t="n">
-        <v>173.8741688132295</v>
+        <v>173.8741688132294</v>
       </c>
       <c r="K37" t="n">
         <v>435.4005972446799</v>
       </c>
       <c r="L37" t="n">
-        <v>825.5908198420038</v>
+        <v>825.5908198420037</v>
       </c>
       <c r="M37" t="n">
         <v>1247.380823959239</v>
@@ -7119,28 +7119,28 @@
         <v>2445.494219020783</v>
       </c>
       <c r="R37" t="n">
-        <v>2378.384217162587</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="S37" t="n">
-        <v>2195.504461774625</v>
+        <v>2262.614463632821</v>
       </c>
       <c r="T37" t="n">
-        <v>1975.896886787057</v>
+        <v>2043.006888645252</v>
       </c>
       <c r="U37" t="n">
-        <v>1686.82158213112</v>
+        <v>1753.931583989316</v>
       </c>
       <c r="V37" t="n">
-        <v>1432.137093925233</v>
+        <v>1499.247095783429</v>
       </c>
       <c r="W37" t="n">
-        <v>1142.719923888273</v>
+        <v>1209.829925746468</v>
       </c>
       <c r="X37" t="n">
-        <v>914.7303729902553</v>
+        <v>981.8403748484509</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.9377938467252</v>
+        <v>761.0477957049208</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.73723964344728</v>
       </c>
       <c r="I38" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557866</v>
       </c>
       <c r="J38" t="n">
         <v>377.7275109623929</v>
       </c>
       <c r="K38" t="n">
-        <v>851.9898429966354</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L38" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M38" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N38" t="n">
         <v>2948.436788907899</v>
@@ -7192,7 +7192,7 @@
         <v>3637.43410966587</v>
       </c>
       <c r="P38" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557453</v>
       </c>
       <c r="Q38" t="n">
         <v>4558.490828317812</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.399330874681</v>
+        <v>874.7906323515732</v>
       </c>
       <c r="C40" t="n">
-        <v>410.4631479467741</v>
+        <v>705.8544494236663</v>
       </c>
       <c r="D40" t="n">
-        <v>260.3465085344384</v>
+        <v>555.7378100113306</v>
       </c>
       <c r="E40" t="n">
-        <v>240.6271871413576</v>
+        <v>407.8247164289374</v>
       </c>
       <c r="F40" t="n">
-        <v>93.73723964344728</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G40" t="n">
         <v>93.73723964344728</v>
@@ -7359,25 +7359,25 @@
         <v>2445.494219020783</v>
       </c>
       <c r="S40" t="n">
-        <v>2262.614463632821</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.006888645252</v>
+        <v>2225.886644033214</v>
       </c>
       <c r="U40" t="n">
-        <v>1753.931583989316</v>
+        <v>2049.322885466208</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.247095783429</v>
+        <v>1794.638397260321</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.829925746468</v>
+        <v>1505.22122722336</v>
       </c>
       <c r="X40" t="n">
-        <v>981.8403748484509</v>
+        <v>1277.231676325343</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.0477957049208</v>
+        <v>1056.439097181813</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2313.718000759161</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C41" t="n">
-        <v>1944.755483818749</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D41" t="n">
-        <v>1586.489785211998</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E41" t="n">
-        <v>1200.701532613754</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F41" t="n">
-        <v>789.7156278241466</v>
+        <v>793.730066701114</v>
       </c>
       <c r="G41" t="n">
         <v>379.7841125753393</v>
@@ -7411,25 +7411,25 @@
         <v>95.14107549557866</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623943</v>
       </c>
       <c r="K41" t="n">
-        <v>851.9898429966358</v>
+        <v>851.989842996637</v>
       </c>
       <c r="L41" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887152</v>
       </c>
       <c r="M41" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818162</v>
       </c>
       <c r="N41" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.4367889079</v>
       </c>
       <c r="O41" t="n">
-        <v>3637.434109665871</v>
+        <v>3637.434109665872</v>
       </c>
       <c r="P41" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q41" t="n">
         <v>4558.490828317812</v>
@@ -7499,10 +7499,10 @@
         <v>1073.553208785908</v>
       </c>
       <c r="M42" t="n">
-        <v>1374.363570030289</v>
+        <v>1670.508111165358</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.52673729672</v>
+        <v>2297.67127843179</v>
       </c>
       <c r="O42" t="n">
         <v>2553.038713876677</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.7608993568443</v>
+        <v>761.0477957049208</v>
       </c>
       <c r="C43" t="n">
-        <v>407.8247164289374</v>
+        <v>761.0477957049208</v>
       </c>
       <c r="D43" t="n">
-        <v>407.8247164289374</v>
+        <v>697.4623551910016</v>
       </c>
       <c r="E43" t="n">
-        <v>407.8247164289374</v>
+        <v>549.5492616086085</v>
       </c>
       <c r="F43" t="n">
-        <v>260.9347689310271</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="G43" t="n">
-        <v>93.73723964344728</v>
+        <v>235.4617848231184</v>
       </c>
       <c r="H43" t="n">
         <v>93.73723964344728</v>
@@ -7593,28 +7593,28 @@
         <v>2445.494219020783</v>
       </c>
       <c r="R43" t="n">
-        <v>2378.384217162587</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="S43" t="n">
-        <v>2195.504461774625</v>
+        <v>2262.614463632821</v>
       </c>
       <c r="T43" t="n">
-        <v>1975.896886787057</v>
+        <v>2043.006888645252</v>
       </c>
       <c r="U43" t="n">
-        <v>1686.82158213112</v>
+        <v>1753.931583989316</v>
       </c>
       <c r="V43" t="n">
-        <v>1432.137093925233</v>
+        <v>1499.247095783429</v>
       </c>
       <c r="W43" t="n">
-        <v>1142.719923888273</v>
+        <v>1209.829925746468</v>
       </c>
       <c r="X43" t="n">
-        <v>914.7303729902553</v>
+        <v>981.8403748484509</v>
       </c>
       <c r="Y43" t="n">
-        <v>693.9377938467252</v>
+        <v>761.0477957049208</v>
       </c>
     </row>
     <row r="44">
@@ -7645,19 +7645,19 @@
         <v>93.73723964344727</v>
       </c>
       <c r="I44" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557775</v>
       </c>
       <c r="J44" t="n">
         <v>377.7275109623934</v>
       </c>
       <c r="K44" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L44" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M44" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N44" t="n">
         <v>2948.436788907899</v>
@@ -7678,16 +7678,16 @@
         <v>4602.241341965512</v>
       </c>
       <c r="T44" t="n">
-        <v>4401.194830717684</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U44" t="n">
-        <v>4147.754473673858</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V44" t="n">
-        <v>3816.691586330287</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.922931060173</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X44" t="n">
         <v>3094.471611676062</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.1919100182112</v>
+        <v>707.5931030639933</v>
       </c>
       <c r="C46" t="n">
-        <v>631.2557270903043</v>
+        <v>538.6569201360865</v>
       </c>
       <c r="D46" t="n">
-        <v>481.1390876779685</v>
+        <v>388.5402807237508</v>
       </c>
       <c r="E46" t="n">
-        <v>333.2259940955754</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F46" t="n">
-        <v>186.336046597665</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="G46" t="n">
         <v>93.73723964344727</v>
@@ -7851,7 +7851,7 @@
         <v>981.8403748484509</v>
       </c>
       <c r="Y46" t="n">
-        <v>981.8403748484509</v>
+        <v>761.0477957049208</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.030432851515</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>84.9418658837474</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>265.6735555317379</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>138.488340926736</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1651665445291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>51.551147709872</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>62.76567358570543</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>63.76691707099539</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>79.00884466270487</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>249.8293036413343</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>284.1719029921758</v>
+        <v>258.2608625745994</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.5631840798973</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>86.53361595400922</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>64.81119518318249</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>152.2044493575493</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>147.8785773062515</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>80.02175928634333</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.974294488197984</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.974294488197984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.974294488197984</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>64.83976926059321</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>45.19550655653985</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.974294488197643</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.974294488198652</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>58.71310634189835</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I31" t="n">
         <v>81.30841035179638</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>46.20842118017782</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.974294488197984</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.97429448819787</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.20842118017774</v>
       </c>
       <c r="E34" t="n">
-        <v>43.01399618489665</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.974294488199803</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>112.6054082801859</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>43.01399618489663</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.43890183961375</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>126.9118344674192</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.3072997278744</v>
@@ -25599,13 +25599,13 @@
         <v>66.43890183961375</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>111.386430628041</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>3.97429448819787</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.974294488197643</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.82685463695526</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>85.66588690943242</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.30841035179638</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.43890183961375</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.974294488198581</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>3.97429448819895</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>126.9118344674192</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>73.85273511002839</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H46" t="n">
         <v>140.3072997278744</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810492.3420568486</v>
+        <v>810492.3420568487</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810492.3420568486</v>
+        <v>810492.3420568487</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957131.6488914813</v>
+        <v>957131.6488914812</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957131.6488914811</v>
+        <v>957131.6488914813</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957131.6488914812</v>
+        <v>957131.6488914813</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957131.6488914813</v>
+        <v>957131.648891481</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957131.6488914811</v>
+        <v>957131.6488914812</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
         <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="H2" t="n">
         <v>392146.6638165589</v>
       </c>
-      <c r="H2" t="n">
-        <v>392146.663816559</v>
-      </c>
       <c r="I2" t="n">
+        <v>463906.3246079748</v>
+      </c>
+      <c r="J2" t="n">
         <v>463906.3246079747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463906.3246079748</v>
       </c>
       <c r="K2" t="n">
         <v>463906.3246079748</v>
       </c>
       <c r="L2" t="n">
-        <v>463906.3246079748</v>
+        <v>463906.3246079747</v>
       </c>
       <c r="M2" t="n">
         <v>463906.3246079747</v>
@@ -26352,10 +26352,10 @@
         <v>463906.3246079748</v>
       </c>
       <c r="O2" t="n">
+        <v>463906.3246079746</v>
+      </c>
+      <c r="P2" t="n">
         <v>463906.3246079748</v>
-      </c>
-      <c r="P2" t="n">
-        <v>463906.3246079747</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171909</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061383</v>
+        <v>299319.5565061382</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072218</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>137930.4104072218</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>101045.05348103</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873520.9487510235</v>
+        <v>-873520.948751023</v>
       </c>
       <c r="C6" t="n">
-        <v>241230.8348248964</v>
+        <v>241230.8348248966</v>
       </c>
       <c r="D6" t="n">
-        <v>241230.8348248965</v>
+        <v>241230.8348248963</v>
       </c>
       <c r="E6" t="n">
-        <v>122520.7510378225</v>
+        <v>125649.3214060772</v>
       </c>
       <c r="F6" t="n">
-        <v>304593.7308550129</v>
+        <v>307722.301223268</v>
       </c>
       <c r="G6" t="n">
-        <v>304593.7308550132</v>
+        <v>307722.3012232681</v>
       </c>
       <c r="H6" t="n">
-        <v>304593.7308550131</v>
+        <v>307722.3012232679</v>
       </c>
       <c r="I6" t="n">
-        <v>53238.88249403135</v>
+        <v>53559.46613566591</v>
       </c>
       <c r="J6" t="n">
-        <v>184953.2611901872</v>
+        <v>185273.8448318215</v>
       </c>
       <c r="K6" t="n">
-        <v>352558.4390001698</v>
+        <v>352879.0226418043</v>
       </c>
       <c r="L6" t="n">
-        <v>352558.4390001698</v>
+        <v>352879.022641804</v>
       </c>
       <c r="M6" t="n">
-        <v>305006.1732067548</v>
+        <v>305326.7568483892</v>
       </c>
       <c r="N6" t="n">
-        <v>352558.4390001698</v>
+        <v>352879.022641804</v>
       </c>
       <c r="O6" t="n">
-        <v>352558.4390001698</v>
+        <v>352879.022641804</v>
       </c>
       <c r="P6" t="n">
-        <v>352558.4390001697</v>
+        <v>352879.0226418041</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="F3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1367.190428991286</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26807,7 +26807,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>1171.715495543091</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>277.4137283979881</v>
+        <v>277.4137283979878</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407982</v>
+        <v>340.3140401407983</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>127.8252952739895</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>4.179892366094037</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1786059160953</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>131.1673011786899</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>58.80367492024581</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>43.08974057846876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>115.3258519193757</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>341.9389696697017</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>179.1210447298648</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>141.7538398541668</v>
+        <v>141.7538398541672</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32800,10 +32800,10 @@
         <v>745.118783800251</v>
       </c>
       <c r="N24" t="n">
-        <v>764.8398608373046</v>
+        <v>465.7039607008709</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5431489342295</v>
+        <v>699.6790490706633</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33031,7 +33031,7 @@
         <v>474.8665096620018</v>
       </c>
       <c r="L27" t="n">
-        <v>638.5166244076759</v>
+        <v>339.3807242712421</v>
       </c>
       <c r="M27" t="n">
         <v>745.118783800251</v>
@@ -33040,7 +33040,7 @@
         <v>764.8398608373046</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5431489342295</v>
+        <v>699.6790490706633</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.118783800251</v>
       </c>
       <c r="N30" t="n">
-        <v>764.8398608373046</v>
+        <v>465.7039607008709</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5431489342295</v>
+        <v>699.6790490706633</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.118783800251</v>
       </c>
       <c r="N33" t="n">
-        <v>764.8398608373046</v>
+        <v>465.7039607008709</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5431489342295</v>
+        <v>699.6790490706633</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -34219,13 +34219,13 @@
         <v>638.5166244076759</v>
       </c>
       <c r="M42" t="n">
-        <v>445.9828836638171</v>
+        <v>745.118783800251</v>
       </c>
       <c r="N42" t="n">
         <v>764.8398608373046</v>
       </c>
       <c r="O42" t="n">
-        <v>699.6790490706633</v>
+        <v>400.5431489342295</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>631.9617651335544</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>602.9847498782326</v>
       </c>
       <c r="N24" t="n">
-        <v>633.4981487539713</v>
+        <v>334.3622486175376</v>
       </c>
       <c r="O24" t="n">
-        <v>257.946904489785</v>
+        <v>557.0828046262188</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.0250706876428</v>
       </c>
       <c r="L27" t="n">
-        <v>499.9622446278017</v>
+        <v>200.826344491368</v>
       </c>
       <c r="M27" t="n">
         <v>602.9847498782326</v>
@@ -36688,7 +36688,7 @@
         <v>633.4981487539713</v>
       </c>
       <c r="O27" t="n">
-        <v>257.946904489785</v>
+        <v>557.0828046262188</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>602.9847498782326</v>
       </c>
       <c r="N30" t="n">
-        <v>633.4981487539713</v>
+        <v>334.3622486175376</v>
       </c>
       <c r="O30" t="n">
-        <v>257.946904489785</v>
+        <v>557.0828046262188</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>602.9847498782326</v>
       </c>
       <c r="N33" t="n">
-        <v>633.4981487539713</v>
+        <v>334.3622486175376</v>
       </c>
       <c r="O33" t="n">
-        <v>257.946904489785</v>
+        <v>557.0828046262188</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>499.9622446278017</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8488497417988</v>
+        <v>602.9847498782326</v>
       </c>
       <c r="N42" t="n">
         <v>633.4981487539713</v>
       </c>
       <c r="O42" t="n">
-        <v>557.0828046262188</v>
+        <v>257.946904489785</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
